--- a/biology/Zoologie/Caenorhabditis/Caenorhabditis.xlsx
+++ b/biology/Zoologie/Caenorhabditis/Caenorhabditis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caenorhabditis est un genre de nématodes vivant dans des environnements riches en bactéries. Il contient l’organisme modèle Caenorhabditis elegans, ainsi que de nombreuses autres espèces dont le génome a été séquencé.
 Le nom est formé des deux racines grecques caeno- (καινός (caenos), récent), et rhabditis (ῥάβδος (rhabdos), tige, bâton).
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (30 octobre 2019)[2], le genre appartient à la sous-famille des Peloderinae avec les genres Pellioditis et Pelodera, et comprend les espèces suivantes :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (30 octobre 2019), le genre appartient à la sous-famille des Peloderinae avec les genres Pellioditis et Pelodera, et comprend les espèces suivantes :
 Caenorhabditis afra
 Caenorhabditis angaria
 Caenorhabditis astrocarya
@@ -589,7 +603,7 @@
 Caenorhabditis sp. JLR-2009 
 Caenorhabditis sp. JU727
 Caenorhabditis sp. SB341
-Selon ITIS      (27 mars 2011)[3] :
+Selon ITIS      (27 mars 2011) :
 Caenorhabditis briggsae
 Caenorhabditis dolichura
 Caenorhabditis elegans
@@ -623,15 +637,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des espèces séquencées
-Caenorhabditis brenneri - génome séquencé
-Caenorhabditis briggsae - génome séquencé en 2003[4]
-Caenorhabditis elegans - génome séquencé en 1998[5]
+          <t>Liste des espèces séquencées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Caenorhabditis brenneri - génome séquencé
+Caenorhabditis briggsae - génome séquencé en 2003
+Caenorhabditis elegans - génome séquencé en 1998
 Caenorhabditis japonica -  génome séquencé
-Caenorhabditis remanei -  génome séquencé
-Études phylogénétiques
-Une étude phylogénétique réalisée en 2014 révèle la présence de deux super-groupes, 'Elegans' et 'Drosophilae et de deux groupes ('Elegans' et 'Japonica') au sein du super-groupe 'Elegans'. Cette étude révèle aussi que C. nigoni est l'espèce-sœur de C. briggsae tandis que C. elegans est seul, basal dans le groupe 'Elegans'[6].
-Une autre étude de 2019 ajoute C. inopinata comme espèce la plus proche de C. elegans. Elle révèle aussi que C. monodelphis est l'espèce la plus basale dans l'arbre phylogénétique[7].
+Caenorhabditis remanei -  génome séquencé</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caenorhabditis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caenorhabditis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Génétique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Études phylogénétiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude phylogénétique réalisée en 2014 révèle la présence de deux super-groupes, 'Elegans' et 'Drosophilae et de deux groupes ('Elegans' et 'Japonica') au sein du super-groupe 'Elegans'. Cette étude révèle aussi que C. nigoni est l'espèce-sœur de C. briggsae tandis que C. elegans est seul, basal dans le groupe 'Elegans'.
+Une autre étude de 2019 ajoute C. inopinata comme espèce la plus proche de C. elegans. Elle révèle aussi que C. monodelphis est l'espèce la plus basale dans l'arbre phylogénétique.
 </t>
         </is>
       </c>
